--- a/core/api/tests/files/Test_BP2025-2027_multiple_errors.xlsx
+++ b/core/api/tests/files/Test_BP2025-2027_multiple_errors.xlsx
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Agency</t>
   </si>
   <si>
-    <t xml:space="preserve">HCFC Status</t>
+    <t xml:space="preserve">Status</t>
   </si>
   <si>
     <t xml:space="preserve">Type</t>
@@ -2434,8 +2434,8 @@
   </sheetPr>
   <dimension ref="A1:AH652"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC3" activeCellId="0" sqref="AC3"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/core/api/tests/files/Test_BP2025-2027_multiple_errors.xlsx
+++ b/core/api/tests/files/Test_BP2025-2027_multiple_errors.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="646">
   <si>
     <t xml:space="preserve">Activity ID</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t xml:space="preserve">KPP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subsector new</t>
   </si>
   <si>
     <t xml:space="preserve">Planu</t>
@@ -2434,8 +2437,8 @@
   </sheetPr>
   <dimension ref="A1:AH652"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2588,13 +2591,13 @@
         <v>9</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" s="6" t="n">
         <v>100</v>
@@ -2646,16 +2649,16 @@
       </c>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26099,10 +26102,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -26110,10 +26113,10 @@
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="18"/>
@@ -26121,10 +26124,10 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="18"/>
@@ -26132,10 +26135,10 @@
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="18"/>
@@ -26143,10 +26146,10 @@
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="18"/>
@@ -26154,10 +26157,10 @@
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="18"/>
@@ -26165,10 +26168,10 @@
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="18"/>
@@ -26176,10 +26179,10 @@
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
@@ -26187,10 +26190,10 @@
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="18"/>
@@ -26198,10 +26201,10 @@
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="18"/>
@@ -26209,10 +26212,10 @@
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
@@ -26220,10 +26223,10 @@
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="18"/>
@@ -26231,10 +26234,10 @@
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="18"/>
@@ -26242,10 +26245,10 @@
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="18"/>
@@ -26253,10 +26256,10 @@
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="18"/>
@@ -26264,10 +26267,10 @@
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="18"/>
@@ -26275,10 +26278,10 @@
     </row>
     <row r="17" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="18"/>
@@ -26286,10 +26289,10 @@
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="18"/>
@@ -26297,10 +26300,10 @@
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="18"/>
@@ -26308,10 +26311,10 @@
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="18"/>
@@ -26319,10 +26322,10 @@
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="18"/>
@@ -26330,10 +26333,10 @@
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="18"/>
@@ -26341,10 +26344,10 @@
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="18"/>
@@ -26352,10 +26355,10 @@
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="18"/>
@@ -26363,10 +26366,10 @@
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="18"/>
@@ -26374,10 +26377,10 @@
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="18"/>
@@ -26385,10 +26388,10 @@
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="18"/>
@@ -26396,10 +26399,10 @@
     </row>
     <row r="28" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="18"/>
@@ -26407,10 +26410,10 @@
     </row>
     <row r="29" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="18"/>
@@ -26418,10 +26421,10 @@
     </row>
     <row r="30" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="18"/>
@@ -26429,10 +26432,10 @@
     </row>
     <row r="31" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="18"/>
@@ -26440,10 +26443,10 @@
     </row>
     <row r="32" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="18"/>
@@ -26451,10 +26454,10 @@
     </row>
     <row r="33" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="18"/>
@@ -26462,10 +26465,10 @@
     </row>
     <row r="34" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="18"/>
@@ -26473,10 +26476,10 @@
     </row>
     <row r="35" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="18"/>
@@ -26484,10 +26487,10 @@
     </row>
     <row r="36" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="18"/>
@@ -26495,10 +26498,10 @@
     </row>
     <row r="37" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="18"/>
@@ -26506,10 +26509,10 @@
     </row>
     <row r="38" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="18"/>
@@ -26517,10 +26520,10 @@
     </row>
     <row r="39" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="18"/>
@@ -26528,10 +26531,10 @@
     </row>
     <row r="40" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="18"/>
@@ -26539,10 +26542,10 @@
     </row>
     <row r="41" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="18"/>
@@ -26550,10 +26553,10 @@
     </row>
     <row r="42" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="18"/>
@@ -26561,10 +26564,10 @@
     </row>
     <row r="43" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="18"/>
@@ -26572,10 +26575,10 @@
     </row>
     <row r="44" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="18"/>
@@ -26583,10 +26586,10 @@
     </row>
     <row r="45" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="18"/>
@@ -26594,10 +26597,10 @@
     </row>
     <row r="46" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="18"/>
@@ -26605,10 +26608,10 @@
     </row>
     <row r="47" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C47" s="19"/>
       <c r="D47" s="18"/>
@@ -26616,10 +26619,10 @@
     </row>
     <row r="48" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="18"/>
@@ -26627,10 +26630,10 @@
     </row>
     <row r="49" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="18"/>
@@ -26638,10 +26641,10 @@
     </row>
     <row r="50" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="18"/>
@@ -26649,10 +26652,10 @@
     </row>
     <row r="51" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="18"/>
@@ -26660,10 +26663,10 @@
     </row>
     <row r="52" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="18"/>
@@ -26671,10 +26674,10 @@
     </row>
     <row r="53" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C53" s="19"/>
       <c r="D53" s="18"/>
@@ -26682,10 +26685,10 @@
     </row>
     <row r="54" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="18"/>
@@ -26693,10 +26696,10 @@
     </row>
     <row r="55" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C55" s="19"/>
       <c r="D55" s="18"/>
@@ -26704,10 +26707,10 @@
     </row>
     <row r="56" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C56" s="19"/>
       <c r="D56" s="18"/>
@@ -26715,10 +26718,10 @@
     </row>
     <row r="57" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C57" s="19"/>
       <c r="D57" s="18"/>
@@ -26726,10 +26729,10 @@
     </row>
     <row r="58" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="18"/>
@@ -26737,10 +26740,10 @@
     </row>
     <row r="59" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C59" s="19"/>
       <c r="D59" s="18"/>
@@ -26748,10 +26751,10 @@
     </row>
     <row r="60" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C60" s="19"/>
       <c r="D60" s="18"/>
@@ -26759,10 +26762,10 @@
     </row>
     <row r="61" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C61" s="19"/>
       <c r="D61" s="18"/>
@@ -26770,10 +26773,10 @@
     </row>
     <row r="62" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C62" s="19"/>
       <c r="D62" s="18"/>
@@ -26781,10 +26784,10 @@
     </row>
     <row r="63" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C63" s="19"/>
       <c r="D63" s="18"/>
@@ -26792,10 +26795,10 @@
     </row>
     <row r="64" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C64" s="19"/>
       <c r="D64" s="18"/>
@@ -26803,10 +26806,10 @@
     </row>
     <row r="65" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C65" s="19"/>
       <c r="D65" s="18"/>
@@ -26814,10 +26817,10 @@
     </row>
     <row r="66" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C66" s="19"/>
       <c r="D66" s="18"/>
@@ -26825,10 +26828,10 @@
     </row>
     <row r="67" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C67" s="19"/>
       <c r="D67" s="18"/>
@@ -26836,10 +26839,10 @@
     </row>
     <row r="68" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C68" s="19"/>
       <c r="D68" s="18"/>
@@ -26847,10 +26850,10 @@
     </row>
     <row r="69" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="18"/>
@@ -26858,10 +26861,10 @@
     </row>
     <row r="70" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="18"/>
@@ -26869,10 +26872,10 @@
     </row>
     <row r="71" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="18"/>
@@ -26880,10 +26883,10 @@
     </row>
     <row r="72" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="18"/>
@@ -26891,10 +26894,10 @@
     </row>
     <row r="73" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C73" s="19"/>
       <c r="D73" s="18"/>
@@ -26902,10 +26905,10 @@
     </row>
     <row r="74" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C74" s="19"/>
       <c r="D74" s="18"/>
@@ -26913,10 +26916,10 @@
     </row>
     <row r="75" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C75" s="19"/>
       <c r="D75" s="18"/>
@@ -26924,10 +26927,10 @@
     </row>
     <row r="76" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C76" s="19"/>
       <c r="D76" s="18"/>
@@ -26935,10 +26938,10 @@
     </row>
     <row r="77" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C77" s="19"/>
       <c r="D77" s="18"/>
@@ -26946,10 +26949,10 @@
     </row>
     <row r="78" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C78" s="19"/>
       <c r="D78" s="18"/>
@@ -26957,10 +26960,10 @@
     </row>
     <row r="79" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C79" s="19"/>
       <c r="D79" s="18"/>
@@ -26968,10 +26971,10 @@
     </row>
     <row r="80" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C80" s="19"/>
       <c r="D80" s="18"/>
@@ -26979,10 +26982,10 @@
     </row>
     <row r="81" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C81" s="19"/>
       <c r="D81" s="18"/>
@@ -26990,10 +26993,10 @@
     </row>
     <row r="82" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C82" s="19"/>
       <c r="D82" s="18"/>
@@ -27001,10 +27004,10 @@
     </row>
     <row r="83" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C83" s="19"/>
       <c r="D83" s="18"/>
@@ -27012,10 +27015,10 @@
     </row>
     <row r="84" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C84" s="19"/>
       <c r="D84" s="18"/>
@@ -27023,10 +27026,10 @@
     </row>
     <row r="85" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="18"/>
@@ -27034,10 +27037,10 @@
     </row>
     <row r="86" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C86" s="19"/>
       <c r="D86" s="18"/>
@@ -27045,10 +27048,10 @@
     </row>
     <row r="87" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C87" s="19"/>
       <c r="D87" s="18"/>
@@ -27056,10 +27059,10 @@
     </row>
     <row r="88" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C88" s="19"/>
       <c r="D88" s="18"/>
@@ -27067,10 +27070,10 @@
     </row>
     <row r="89" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C89" s="19"/>
       <c r="D89" s="18"/>
@@ -27078,10 +27081,10 @@
     </row>
     <row r="90" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C90" s="19"/>
       <c r="D90" s="18"/>
@@ -27089,10 +27092,10 @@
     </row>
     <row r="91" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C91" s="19"/>
       <c r="D91" s="18"/>
@@ -27100,10 +27103,10 @@
     </row>
     <row r="92" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C92" s="19"/>
       <c r="D92" s="18"/>
@@ -27111,10 +27114,10 @@
     </row>
     <row r="93" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C93" s="19"/>
       <c r="D93" s="18"/>
@@ -27122,10 +27125,10 @@
     </row>
     <row r="94" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C94" s="19"/>
       <c r="D94" s="18"/>
@@ -27133,10 +27136,10 @@
     </row>
     <row r="95" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C95" s="19"/>
       <c r="D95" s="18"/>
@@ -27144,10 +27147,10 @@
     </row>
     <row r="96" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C96" s="19"/>
       <c r="D96" s="18"/>
@@ -27155,10 +27158,10 @@
     </row>
     <row r="97" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C97" s="19"/>
       <c r="D97" s="18"/>
@@ -27166,10 +27169,10 @@
     </row>
     <row r="98" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C98" s="19"/>
       <c r="D98" s="18"/>
@@ -27177,10 +27180,10 @@
     </row>
     <row r="99" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C99" s="19"/>
       <c r="D99" s="18"/>
@@ -27188,10 +27191,10 @@
     </row>
     <row r="100" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C100" s="19"/>
       <c r="D100" s="18"/>
@@ -27199,10 +27202,10 @@
     </row>
     <row r="101" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C101" s="19"/>
       <c r="D101" s="18"/>
@@ -27210,10 +27213,10 @@
     </row>
     <row r="102" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C102" s="19"/>
       <c r="D102" s="18"/>
@@ -27221,10 +27224,10 @@
     </row>
     <row r="103" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C103" s="19"/>
       <c r="D103" s="18"/>
@@ -27232,10 +27235,10 @@
     </row>
     <row r="104" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C104" s="19"/>
       <c r="D104" s="18"/>
@@ -27243,10 +27246,10 @@
     </row>
     <row r="105" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C105" s="19"/>
       <c r="D105" s="18"/>
@@ -27254,10 +27257,10 @@
     </row>
     <row r="106" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C106" s="19"/>
       <c r="D106" s="18"/>
@@ -27265,10 +27268,10 @@
     </row>
     <row r="107" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C107" s="19"/>
       <c r="D107" s="18"/>
@@ -27276,10 +27279,10 @@
     </row>
     <row r="108" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C108" s="19"/>
       <c r="D108" s="18"/>
@@ -27287,10 +27290,10 @@
     </row>
     <row r="109" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C109" s="19"/>
       <c r="D109" s="18"/>
@@ -27298,10 +27301,10 @@
     </row>
     <row r="110" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C110" s="19"/>
       <c r="D110" s="18"/>
@@ -27309,10 +27312,10 @@
     </row>
     <row r="111" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C111" s="19"/>
       <c r="D111" s="18"/>
@@ -27320,10 +27323,10 @@
     </row>
     <row r="112" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C112" s="19"/>
       <c r="D112" s="18"/>
@@ -27331,10 +27334,10 @@
     </row>
     <row r="113" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C113" s="19"/>
       <c r="D113" s="18"/>
@@ -27342,10 +27345,10 @@
     </row>
     <row r="114" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C114" s="19"/>
       <c r="D114" s="18"/>
@@ -27353,10 +27356,10 @@
     </row>
     <row r="115" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C115" s="19"/>
       <c r="D115" s="18"/>
@@ -27364,10 +27367,10 @@
     </row>
     <row r="116" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C116" s="19"/>
       <c r="D116" s="18"/>
@@ -27375,10 +27378,10 @@
     </row>
     <row r="117" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C117" s="19"/>
       <c r="D117" s="18"/>
@@ -27386,10 +27389,10 @@
     </row>
     <row r="118" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C118" s="19"/>
       <c r="D118" s="18"/>
@@ -27397,10 +27400,10 @@
     </row>
     <row r="119" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C119" s="19"/>
       <c r="D119" s="18"/>
@@ -27408,10 +27411,10 @@
     </row>
     <row r="120" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C120" s="19"/>
       <c r="D120" s="18"/>
@@ -27419,10 +27422,10 @@
     </row>
     <row r="121" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C121" s="19"/>
       <c r="D121" s="18"/>
@@ -27430,10 +27433,10 @@
     </row>
     <row r="122" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C122" s="19"/>
       <c r="D122" s="18"/>
@@ -27441,10 +27444,10 @@
     </row>
     <row r="123" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C123" s="19"/>
       <c r="D123" s="18"/>
@@ -27452,10 +27455,10 @@
     </row>
     <row r="124" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C124" s="19"/>
       <c r="D124" s="18"/>
@@ -27463,10 +27466,10 @@
     </row>
     <row r="125" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C125" s="19"/>
       <c r="D125" s="18"/>
@@ -27474,10 +27477,10 @@
     </row>
     <row r="126" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C126" s="19"/>
       <c r="D126" s="18"/>
@@ -27485,10 +27488,10 @@
     </row>
     <row r="127" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C127" s="19"/>
       <c r="D127" s="18"/>
@@ -27496,10 +27499,10 @@
     </row>
     <row r="128" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C128" s="19"/>
       <c r="D128" s="18"/>
@@ -27507,10 +27510,10 @@
     </row>
     <row r="129" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C129" s="19"/>
       <c r="D129" s="18"/>
@@ -27518,10 +27521,10 @@
     </row>
     <row r="130" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C130" s="19"/>
       <c r="D130" s="18"/>
@@ -27529,10 +27532,10 @@
     </row>
     <row r="131" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C131" s="19"/>
       <c r="D131" s="18"/>
@@ -27540,10 +27543,10 @@
     </row>
     <row r="132" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C132" s="19"/>
       <c r="D132" s="18"/>
@@ -27551,10 +27554,10 @@
     </row>
     <row r="133" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C133" s="19"/>
       <c r="D133" s="18"/>
@@ -27562,10 +27565,10 @@
     </row>
     <row r="134" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C134" s="19"/>
       <c r="D134" s="18"/>
@@ -27573,10 +27576,10 @@
     </row>
     <row r="135" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C135" s="19"/>
       <c r="D135" s="18"/>
@@ -27584,10 +27587,10 @@
     </row>
     <row r="136" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C136" s="19"/>
       <c r="D136" s="18"/>
@@ -27595,10 +27598,10 @@
     </row>
     <row r="137" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C137" s="19"/>
       <c r="D137" s="18"/>
@@ -27606,10 +27609,10 @@
     </row>
     <row r="138" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C138" s="19"/>
       <c r="D138" s="18"/>
@@ -27617,10 +27620,10 @@
     </row>
     <row r="139" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C139" s="19"/>
       <c r="D139" s="18"/>
@@ -27628,10 +27631,10 @@
     </row>
     <row r="140" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C140" s="19"/>
       <c r="D140" s="18"/>
@@ -27639,10 +27642,10 @@
     </row>
     <row r="141" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C141" s="19"/>
       <c r="D141" s="18"/>
@@ -27650,10 +27653,10 @@
     </row>
     <row r="142" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C142" s="19"/>
       <c r="D142" s="18"/>
@@ -27661,10 +27664,10 @@
     </row>
     <row r="143" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C143" s="19"/>
       <c r="D143" s="18"/>
@@ -27672,10 +27675,10 @@
     </row>
     <row r="144" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C144" s="19"/>
       <c r="D144" s="18"/>
@@ -27683,10 +27686,10 @@
     </row>
     <row r="145" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C145" s="19"/>
       <c r="D145" s="18"/>
@@ -27694,10 +27697,10 @@
     </row>
     <row r="146" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C146" s="19"/>
       <c r="D146" s="18"/>
@@ -27705,10 +27708,10 @@
     </row>
     <row r="147" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C147" s="19"/>
       <c r="D147" s="18"/>
@@ -27716,10 +27719,10 @@
     </row>
     <row r="148" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C148" s="19"/>
       <c r="D148" s="18"/>
@@ -27727,10 +27730,10 @@
     </row>
     <row r="149" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C149" s="19"/>
       <c r="D149" s="18"/>
@@ -27738,10 +27741,10 @@
     </row>
     <row r="150" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C150" s="19"/>
       <c r="D150" s="18"/>
@@ -27749,10 +27752,10 @@
     </row>
     <row r="151" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C151" s="19"/>
       <c r="D151" s="18"/>
@@ -27760,10 +27763,10 @@
     </row>
     <row r="152" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C152" s="19"/>
       <c r="D152" s="18"/>
@@ -27771,10 +27774,10 @@
     </row>
     <row r="153" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C153" s="19"/>
       <c r="D153" s="18"/>
@@ -27782,10 +27785,10 @@
     </row>
     <row r="154" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C154" s="19"/>
       <c r="D154" s="18"/>
@@ -27793,10 +27796,10 @@
     </row>
     <row r="155" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C155" s="19"/>
       <c r="D155" s="18"/>
@@ -27804,10 +27807,10 @@
     </row>
     <row r="156" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C156" s="19"/>
       <c r="D156" s="18"/>
@@ -27815,10 +27818,10 @@
     </row>
     <row r="157" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C157" s="19"/>
       <c r="D157" s="18"/>
@@ -27826,10 +27829,10 @@
     </row>
     <row r="158" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C158" s="19"/>
       <c r="D158" s="18"/>
@@ -27837,10 +27840,10 @@
     </row>
     <row r="159" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C159" s="19"/>
       <c r="D159" s="18"/>
@@ -27848,10 +27851,10 @@
     </row>
     <row r="160" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C160" s="19"/>
       <c r="D160" s="18"/>
@@ -27859,10 +27862,10 @@
     </row>
     <row r="161" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C161" s="19"/>
       <c r="D161" s="18"/>
@@ -27870,10 +27873,10 @@
     </row>
     <row r="162" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C162" s="19"/>
       <c r="D162" s="18"/>
@@ -27881,10 +27884,10 @@
     </row>
     <row r="163" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C163" s="19"/>
       <c r="D163" s="18"/>
@@ -27892,10 +27895,10 @@
     </row>
     <row r="164" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C164" s="19"/>
       <c r="D164" s="18"/>
@@ -27903,10 +27906,10 @@
     </row>
     <row r="165" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C165" s="19"/>
       <c r="D165" s="18"/>
@@ -27914,10 +27917,10 @@
     </row>
     <row r="166" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C166" s="19"/>
       <c r="D166" s="18"/>
@@ -27925,10 +27928,10 @@
     </row>
     <row r="167" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C167" s="19"/>
       <c r="D167" s="18"/>
@@ -27936,10 +27939,10 @@
     </row>
     <row r="168" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C168" s="19"/>
       <c r="D168" s="18"/>
@@ -27947,10 +27950,10 @@
     </row>
     <row r="169" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C169" s="19"/>
       <c r="D169" s="18"/>
@@ -27958,10 +27961,10 @@
     </row>
     <row r="170" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C170" s="19"/>
       <c r="D170" s="18"/>
@@ -27969,10 +27972,10 @@
     </row>
     <row r="171" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C171" s="19"/>
       <c r="D171" s="18"/>
@@ -27980,10 +27983,10 @@
     </row>
     <row r="172" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C172" s="19"/>
       <c r="D172" s="18"/>
@@ -27991,10 +27994,10 @@
     </row>
     <row r="173" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C173" s="19"/>
       <c r="D173" s="18"/>
@@ -28002,10 +28005,10 @@
     </row>
     <row r="174" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C174" s="19"/>
       <c r="D174" s="18"/>
@@ -28013,10 +28016,10 @@
     </row>
     <row r="175" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C175" s="19"/>
       <c r="D175" s="18"/>
@@ -28024,10 +28027,10 @@
     </row>
     <row r="176" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C176" s="19"/>
       <c r="D176" s="18"/>
@@ -28035,10 +28038,10 @@
     </row>
     <row r="177" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C177" s="19"/>
       <c r="D177" s="18"/>
@@ -28046,10 +28049,10 @@
     </row>
     <row r="178" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C178" s="19"/>
       <c r="D178" s="18"/>
@@ -28057,10 +28060,10 @@
     </row>
     <row r="179" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C179" s="19"/>
       <c r="D179" s="18"/>
@@ -28068,10 +28071,10 @@
     </row>
     <row r="180" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C180" s="19"/>
       <c r="D180" s="18"/>
@@ -28079,10 +28082,10 @@
     </row>
     <row r="181" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C181" s="19"/>
       <c r="D181" s="18"/>
@@ -28090,10 +28093,10 @@
     </row>
     <row r="182" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C182" s="19"/>
       <c r="D182" s="18"/>
@@ -28101,10 +28104,10 @@
     </row>
     <row r="183" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C183" s="19"/>
       <c r="D183" s="18"/>
@@ -28112,10 +28115,10 @@
     </row>
     <row r="184" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C184" s="19"/>
       <c r="D184" s="18"/>
@@ -28123,10 +28126,10 @@
     </row>
     <row r="185" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C185" s="19"/>
       <c r="D185" s="18"/>
@@ -28134,10 +28137,10 @@
     </row>
     <row r="186" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C186" s="19"/>
       <c r="D186" s="18"/>
@@ -28145,10 +28148,10 @@
     </row>
     <row r="187" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C187" s="19"/>
       <c r="D187" s="18"/>
@@ -28156,10 +28159,10 @@
     </row>
     <row r="188" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C188" s="19"/>
       <c r="D188" s="18"/>
@@ -28167,10 +28170,10 @@
     </row>
     <row r="189" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C189" s="19"/>
       <c r="D189" s="18"/>
@@ -28178,10 +28181,10 @@
     </row>
     <row r="190" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C190" s="19"/>
       <c r="D190" s="18"/>
@@ -28189,10 +28192,10 @@
     </row>
     <row r="191" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C191" s="19"/>
       <c r="D191" s="18"/>
@@ -28200,10 +28203,10 @@
     </row>
     <row r="192" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C192" s="19"/>
       <c r="D192" s="18"/>
@@ -28211,10 +28214,10 @@
     </row>
     <row r="193" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C193" s="19"/>
       <c r="D193" s="18"/>
@@ -28222,10 +28225,10 @@
     </row>
     <row r="194" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C194" s="19"/>
       <c r="D194" s="18"/>
@@ -28233,10 +28236,10 @@
     </row>
     <row r="195" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C195" s="19"/>
       <c r="D195" s="18"/>
@@ -28244,10 +28247,10 @@
     </row>
     <row r="196" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C196" s="19"/>
       <c r="D196" s="18"/>
@@ -28255,10 +28258,10 @@
     </row>
     <row r="197" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C197" s="19"/>
       <c r="D197" s="18"/>
@@ -28266,10 +28269,10 @@
     </row>
     <row r="198" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C198" s="19"/>
       <c r="D198" s="18"/>
@@ -28277,10 +28280,10 @@
     </row>
     <row r="199" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C199" s="19"/>
       <c r="D199" s="18"/>
@@ -28288,10 +28291,10 @@
     </row>
     <row r="200" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C200" s="19"/>
       <c r="D200" s="18"/>
@@ -28299,10 +28302,10 @@
     </row>
     <row r="201" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C201" s="19"/>
       <c r="D201" s="18"/>
@@ -28310,10 +28313,10 @@
     </row>
     <row r="202" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C202" s="19"/>
       <c r="D202" s="18"/>
@@ -28321,10 +28324,10 @@
     </row>
     <row r="203" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C203" s="19"/>
       <c r="D203" s="18"/>
@@ -28332,10 +28335,10 @@
     </row>
     <row r="204" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C204" s="19"/>
       <c r="D204" s="18"/>
@@ -28343,10 +28346,10 @@
     </row>
     <row r="205" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C205" s="19"/>
       <c r="D205" s="18"/>
@@ -28354,10 +28357,10 @@
     </row>
     <row r="206" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C206" s="19"/>
       <c r="D206" s="18"/>
@@ -28365,10 +28368,10 @@
     </row>
     <row r="207" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C207" s="19"/>
       <c r="D207" s="18"/>
@@ -28376,10 +28379,10 @@
     </row>
     <row r="208" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C208" s="19"/>
       <c r="D208" s="18"/>
@@ -28387,10 +28390,10 @@
     </row>
     <row r="209" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C209" s="19"/>
       <c r="D209" s="18"/>
@@ -28398,10 +28401,10 @@
     </row>
     <row r="210" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C210" s="19"/>
       <c r="D210" s="18"/>
@@ -28409,10 +28412,10 @@
     </row>
     <row r="211" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C211" s="19"/>
       <c r="D211" s="18"/>
@@ -28420,10 +28423,10 @@
     </row>
     <row r="212" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C212" s="19"/>
       <c r="D212" s="18"/>
@@ -28431,10 +28434,10 @@
     </row>
     <row r="213" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C213" s="19"/>
       <c r="D213" s="18"/>
@@ -28470,7 +28473,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -28479,7 +28482,7 @@
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="18"/>
@@ -28488,7 +28491,7 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="18"/>
@@ -28497,7 +28500,7 @@
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="18"/>
@@ -28506,7 +28509,7 @@
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="18"/>
@@ -28515,7 +28518,7 @@
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="18"/>
@@ -28524,7 +28527,7 @@
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="18"/>
@@ -28533,7 +28536,7 @@
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="18"/>
@@ -28542,7 +28545,7 @@
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="18"/>
@@ -28551,7 +28554,7 @@
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
@@ -28560,7 +28563,7 @@
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="18"/>
@@ -28569,7 +28572,7 @@
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
@@ -28578,7 +28581,7 @@
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="18"/>
@@ -28587,7 +28590,7 @@
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
@@ -28596,7 +28599,7 @@
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="18"/>
@@ -28605,7 +28608,7 @@
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="18"/>
@@ -28614,7 +28617,7 @@
     </row>
     <row r="17" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="18"/>
@@ -28623,7 +28626,7 @@
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="18"/>
@@ -28632,7 +28635,7 @@
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="18"/>
@@ -28641,7 +28644,7 @@
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="18"/>
@@ -28650,7 +28653,7 @@
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="18"/>
@@ -28659,7 +28662,7 @@
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="18"/>
@@ -28668,7 +28671,7 @@
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="18"/>
@@ -28677,7 +28680,7 @@
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="18"/>
@@ -28686,7 +28689,7 @@
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="18"/>
@@ -28695,7 +28698,7 @@
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="18"/>
@@ -28704,7 +28707,7 @@
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="18"/>
@@ -28713,7 +28716,7 @@
     </row>
     <row r="28" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="18"/>
@@ -28722,7 +28725,7 @@
     </row>
     <row r="29" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="18"/>
@@ -28759,7 +28762,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -28768,7 +28771,7 @@
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="18"/>
@@ -28777,7 +28780,7 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="18"/>
@@ -28786,7 +28789,7 @@
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="18"/>
@@ -28795,7 +28798,7 @@
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="18"/>
@@ -28804,7 +28807,7 @@
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="18"/>
@@ -28813,7 +28816,7 @@
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="18"/>
@@ -28822,7 +28825,7 @@
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="18"/>
@@ -28831,7 +28834,7 @@
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="18"/>
@@ -28840,7 +28843,7 @@
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
@@ -28849,7 +28852,7 @@
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="18"/>
@@ -28858,7 +28861,7 @@
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
@@ -28867,7 +28870,7 @@
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="18"/>
@@ -28876,7 +28879,7 @@
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
@@ -28885,7 +28888,7 @@
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="18"/>
@@ -28894,7 +28897,7 @@
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="18"/>
@@ -28903,7 +28906,7 @@
     </row>
     <row r="17" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="18"/>
@@ -28912,7 +28915,7 @@
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="18"/>
@@ -28921,7 +28924,7 @@
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="18"/>
@@ -28930,7 +28933,7 @@
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="18"/>
@@ -28939,7 +28942,7 @@
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="18"/>
@@ -28948,7 +28951,7 @@
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="18"/>
@@ -28957,7 +28960,7 @@
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="18"/>
@@ -28966,7 +28969,7 @@
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="18"/>
@@ -28975,7 +28978,7 @@
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="18"/>
@@ -28984,7 +28987,7 @@
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="18"/>
@@ -28993,7 +28996,7 @@
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="18"/>
@@ -29002,7 +29005,7 @@
     </row>
     <row r="28" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="18"/>
@@ -29011,7 +29014,7 @@
     </row>
     <row r="29" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="18"/>
@@ -29020,7 +29023,7 @@
     </row>
     <row r="30" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="18"/>
@@ -29057,7 +29060,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -29066,7 +29069,7 @@
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="18"/>
@@ -29075,7 +29078,7 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="18"/>
@@ -29084,7 +29087,7 @@
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="18"/>
@@ -29093,7 +29096,7 @@
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="18"/>
@@ -29102,7 +29105,7 @@
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="18"/>
@@ -29111,7 +29114,7 @@
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="18"/>
@@ -29120,7 +29123,7 @@
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="18"/>
@@ -29129,7 +29132,7 @@
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="18"/>
@@ -29138,7 +29141,7 @@
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
@@ -29176,10 +29179,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -29187,10 +29190,10 @@
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="18"/>
@@ -29198,10 +29201,10 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="18"/>
@@ -29209,10 +29212,10 @@
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="18"/>
@@ -29220,10 +29223,10 @@
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="18"/>
@@ -29231,10 +29234,10 @@
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="18"/>
@@ -29242,10 +29245,10 @@
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="18"/>
@@ -29253,10 +29256,10 @@
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
@@ -29264,10 +29267,10 @@
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="18"/>
@@ -29275,10 +29278,10 @@
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="18"/>
@@ -29286,10 +29289,10 @@
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
@@ -29297,10 +29300,10 @@
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="18"/>
@@ -29337,10 +29340,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -29348,10 +29351,10 @@
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="18"/>
@@ -29359,10 +29362,10 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="18"/>
@@ -29370,10 +29373,10 @@
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="18"/>
@@ -29381,10 +29384,10 @@
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="18"/>
@@ -29392,10 +29395,10 @@
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="18"/>
@@ -29403,10 +29406,10 @@
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="18"/>
@@ -29414,10 +29417,10 @@
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
@@ -29425,10 +29428,10 @@
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="18"/>
@@ -29436,10 +29439,10 @@
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="18"/>
@@ -29447,10 +29450,10 @@
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
@@ -29458,10 +29461,10 @@
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="18"/>
@@ -29469,10 +29472,10 @@
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="18"/>
@@ -29480,10 +29483,10 @@
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="18"/>
@@ -29491,10 +29494,10 @@
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="18"/>
@@ -29502,10 +29505,10 @@
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="18"/>
@@ -29513,10 +29516,10 @@
     </row>
     <row r="17" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="18"/>
@@ -29524,10 +29527,10 @@
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="18"/>
@@ -29535,10 +29538,10 @@
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="18"/>
@@ -29546,10 +29549,10 @@
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="18"/>
@@ -29557,10 +29560,10 @@
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="18"/>
@@ -29568,10 +29571,10 @@
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="18"/>
@@ -29579,10 +29582,10 @@
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="18"/>
@@ -29590,10 +29593,10 @@
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="18"/>
@@ -29601,10 +29604,10 @@
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="18"/>
@@ -29612,10 +29615,10 @@
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="18"/>
@@ -29652,10 +29655,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -29663,10 +29666,10 @@
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="18"/>
@@ -29674,10 +29677,10 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="18"/>
@@ -29685,10 +29688,10 @@
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="18"/>
@@ -29696,10 +29699,10 @@
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="18"/>
@@ -29707,10 +29710,10 @@
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="18"/>
@@ -29718,10 +29721,10 @@
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="18"/>
@@ -29729,10 +29732,10 @@
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
@@ -29740,10 +29743,10 @@
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="18"/>
@@ -29751,10 +29754,10 @@
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="18"/>
@@ -29762,10 +29765,10 @@
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
@@ -29773,10 +29776,10 @@
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="18"/>
@@ -29784,10 +29787,10 @@
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="18"/>
@@ -29795,10 +29798,10 @@
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="18"/>
@@ -29806,10 +29809,10 @@
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="18"/>
@@ -29817,10 +29820,10 @@
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="18"/>
@@ -29828,10 +29831,10 @@
     </row>
     <row r="17" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="18"/>
@@ -29839,10 +29842,10 @@
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="18"/>
@@ -29850,10 +29853,10 @@
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="18"/>
@@ -29861,10 +29864,10 @@
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="18"/>
@@ -29872,10 +29875,10 @@
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="18"/>
@@ -29883,10 +29886,10 @@
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="18"/>
@@ -29894,10 +29897,10 @@
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="18"/>
@@ -29905,10 +29908,10 @@
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="18"/>
@@ -29916,10 +29919,10 @@
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="18"/>
@@ -29927,10 +29930,10 @@
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="18"/>
@@ -29938,10 +29941,10 @@
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="18"/>
@@ -29949,10 +29952,10 @@
     </row>
     <row r="28" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="18"/>
@@ -29960,10 +29963,10 @@
     </row>
     <row r="29" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="18"/>
@@ -29971,10 +29974,10 @@
     </row>
     <row r="30" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="18"/>
@@ -29982,10 +29985,10 @@
     </row>
     <row r="31" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="18"/>
@@ -29993,10 +29996,10 @@
     </row>
     <row r="32" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="18"/>
@@ -30004,10 +30007,10 @@
     </row>
     <row r="33" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="18"/>
@@ -30015,10 +30018,10 @@
     </row>
     <row r="34" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="18"/>
@@ -30026,10 +30029,10 @@
     </row>
     <row r="35" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="18"/>
@@ -30037,10 +30040,10 @@
     </row>
     <row r="36" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="18"/>
@@ -30048,10 +30051,10 @@
     </row>
     <row r="37" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="18"/>
@@ -30059,10 +30062,10 @@
     </row>
     <row r="38" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="18"/>
@@ -30070,10 +30073,10 @@
     </row>
     <row r="39" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="18"/>
@@ -30081,10 +30084,10 @@
     </row>
     <row r="40" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="18"/>
@@ -30092,10 +30095,10 @@
     </row>
     <row r="41" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="18"/>
@@ -30103,10 +30106,10 @@
     </row>
     <row r="42" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="18"/>
@@ -30114,10 +30117,10 @@
     </row>
     <row r="43" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="18"/>
@@ -30125,10 +30128,10 @@
     </row>
     <row r="44" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="18"/>
@@ -30136,10 +30139,10 @@
     </row>
     <row r="45" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="18"/>
@@ -30147,10 +30150,10 @@
     </row>
     <row r="46" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="18"/>
@@ -30158,10 +30161,10 @@
     </row>
     <row r="47" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C47" s="19"/>
       <c r="D47" s="18"/>
@@ -30169,10 +30172,10 @@
     </row>
     <row r="48" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="18"/>
@@ -30180,10 +30183,10 @@
     </row>
     <row r="49" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="18"/>
@@ -30191,10 +30194,10 @@
     </row>
     <row r="50" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="18"/>
@@ -30202,10 +30205,10 @@
     </row>
     <row r="51" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="18"/>
@@ -30213,10 +30216,10 @@
     </row>
     <row r="52" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="18"/>
@@ -30224,10 +30227,10 @@
     </row>
     <row r="53" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C53" s="19"/>
       <c r="D53" s="18"/>
@@ -30235,10 +30238,10 @@
     </row>
     <row r="54" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="18"/>
@@ -30246,10 +30249,10 @@
     </row>
     <row r="55" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C55" s="19"/>
       <c r="D55" s="18"/>
@@ -30257,10 +30260,10 @@
     </row>
     <row r="56" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C56" s="19"/>
       <c r="D56" s="18"/>
@@ -30268,10 +30271,10 @@
     </row>
     <row r="57" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C57" s="19"/>
       <c r="D57" s="18"/>
@@ -30279,10 +30282,10 @@
     </row>
     <row r="58" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="18"/>
@@ -30290,10 +30293,10 @@
     </row>
     <row r="59" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>569</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>568</v>
       </c>
       <c r="C59" s="19"/>
       <c r="D59" s="18"/>
@@ -30301,10 +30304,10 @@
     </row>
     <row r="60" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C60" s="19"/>
       <c r="D60" s="18"/>
@@ -30312,10 +30315,10 @@
     </row>
     <row r="61" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C61" s="19"/>
       <c r="D61" s="18"/>
@@ -30323,10 +30326,10 @@
     </row>
     <row r="62" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C62" s="19"/>
       <c r="D62" s="18"/>
@@ -30334,10 +30337,10 @@
     </row>
     <row r="63" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C63" s="19"/>
       <c r="D63" s="18"/>
@@ -30345,10 +30348,10 @@
     </row>
     <row r="64" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C64" s="19"/>
       <c r="D64" s="18"/>
@@ -30356,10 +30359,10 @@
     </row>
     <row r="65" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C65" s="19"/>
       <c r="D65" s="18"/>
@@ -30367,10 +30370,10 @@
     </row>
     <row r="66" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C66" s="19"/>
       <c r="D66" s="18"/>
@@ -30378,10 +30381,10 @@
     </row>
     <row r="67" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C67" s="19"/>
       <c r="D67" s="18"/>
@@ -30389,10 +30392,10 @@
     </row>
     <row r="68" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C68" s="19"/>
       <c r="D68" s="18"/>
@@ -30400,10 +30403,10 @@
     </row>
     <row r="69" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="18"/>
@@ -30411,10 +30414,10 @@
     </row>
     <row r="70" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="18"/>
@@ -30422,10 +30425,10 @@
     </row>
     <row r="71" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="18"/>
@@ -30433,10 +30436,10 @@
     </row>
     <row r="72" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="18"/>
@@ -30444,10 +30447,10 @@
     </row>
     <row r="73" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C73" s="19"/>
       <c r="D73" s="18"/>
@@ -30455,10 +30458,10 @@
     </row>
     <row r="74" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C74" s="19"/>
       <c r="D74" s="18"/>
@@ -30466,10 +30469,10 @@
     </row>
     <row r="75" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C75" s="19"/>
       <c r="D75" s="18"/>
@@ -30477,10 +30480,10 @@
     </row>
     <row r="76" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C76" s="19"/>
       <c r="D76" s="18"/>
@@ -30488,10 +30491,10 @@
     </row>
     <row r="77" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C77" s="19"/>
       <c r="D77" s="18"/>
@@ -30499,10 +30502,10 @@
     </row>
     <row r="78" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C78" s="19"/>
       <c r="D78" s="18"/>
@@ -30510,10 +30513,10 @@
     </row>
     <row r="79" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C79" s="19"/>
       <c r="D79" s="18"/>
@@ -30521,10 +30524,10 @@
     </row>
     <row r="80" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C80" s="19"/>
       <c r="D80" s="18"/>
@@ -30532,10 +30535,10 @@
     </row>
     <row r="81" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C81" s="19"/>
       <c r="D81" s="18"/>
@@ -30543,10 +30546,10 @@
     </row>
     <row r="82" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C82" s="19"/>
       <c r="D82" s="18"/>
@@ -30554,10 +30557,10 @@
     </row>
     <row r="83" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C83" s="19"/>
       <c r="D83" s="18"/>
@@ -30565,10 +30568,10 @@
     </row>
     <row r="84" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C84" s="19"/>
       <c r="D84" s="18"/>
@@ -30576,10 +30579,10 @@
     </row>
     <row r="85" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="18"/>
@@ -30587,10 +30590,10 @@
     </row>
     <row r="86" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C86" s="19"/>
       <c r="D86" s="18"/>
@@ -30598,10 +30601,10 @@
     </row>
     <row r="87" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C87" s="19"/>
       <c r="D87" s="18"/>
@@ -30637,7 +30640,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -30655,7 +30658,7 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="18"/>
@@ -30664,7 +30667,7 @@
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="18"/>
@@ -30673,7 +30676,7 @@
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="18"/>

--- a/core/api/tests/files/Test_BP2025-2027_multiple_errors.xlsx
+++ b/core/api/tests/files/Test_BP2025-2027_multiple_errors.xlsx
@@ -69,52 +69,92 @@
     <t xml:space="preserve">Required by Model</t>
   </si>
   <si>
-    <t xml:space="preserve">Value ($000) 2025 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODP 2025 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT for HFC 2025 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2-EQ 2025 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value ($000) 2026 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODP 2026 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT for HFC 2026 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2-EQ 2026 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value ($000) 2027 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODP 2027 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT for HFC 2027 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2-EQ 2027 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value ($000) after 2027 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODP after 2027 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT for HFC after 2027 adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2-EQ after 2027 adjusted</t>
+    <t xml:space="preserve">Value (US $) 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODP 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT for HFC 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2-EQ 2025 tonnes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value (US $) 2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODP 2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT for HFC 2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2-EQ 2026 tonnes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value (US $) 2027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODP 2027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT for HFC 2027</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri-Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CO2-EQ 2027 </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri-Bold"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">tonnes</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Value (US $) after 2027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODP after 2027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT for HFC after 2027</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri-Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CO2-EQ after 2027 </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri-Bold"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">tonnes</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Project Status (A/P)</t>
@@ -1978,7 +2018,7 @@
     <numFmt numFmtId="166" formatCode="[$$-409]###,###,##0.00#############"/>
     <numFmt numFmtId="167" formatCode="###,###,##0.00#############"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2014,6 +2054,13 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri-Bold"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2194,7 +2241,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2437,8 +2484,8 @@
   </sheetPr>
   <dimension ref="A1:AH652"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC1" activeCellId="0" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/core/api/tests/files/Test_BP2025-2027_multiple_errors.xlsx
+++ b/core/api/tests/files/Test_BP2025-2027_multiple_errors.xlsx
@@ -78,7 +78,7 @@
     <t xml:space="preserve">MT for HFC 2025</t>
   </si>
   <si>
-    <t xml:space="preserve">CO2-EQ 2025 tonnes</t>
+    <t xml:space="preserve">CO₂-eq 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Value (US $) 2026</t>
@@ -90,7 +90,7 @@
     <t xml:space="preserve">MT for HFC 2026</t>
   </si>
   <si>
-    <t xml:space="preserve">CO2-EQ 2026 tonnes</t>
+    <t xml:space="preserve">CO₂-eq 2026</t>
   </si>
   <si>
     <t xml:space="preserve">Value (US $) 2027</t>
@@ -102,27 +102,7 @@
     <t xml:space="preserve">MT for HFC 2027</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri-Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">CO2-EQ 2027 </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri-Bold"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">tonnes</t>
-    </r>
+    <t xml:space="preserve">CO₂-eq 2027</t>
   </si>
   <si>
     <t xml:space="preserve">Value (US $) after 2027</t>
@@ -134,27 +114,7 @@
     <t xml:space="preserve">MT for HFC after 2027</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri-Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">CO2-EQ after 2027 </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri-Bold"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">tonnes</t>
-    </r>
+    <t xml:space="preserve">CO₂-eq after 2027</t>
   </si>
   <si>
     <t xml:space="preserve">Project Status (A/P)</t>
@@ -2018,7 +1978,7 @@
     <numFmt numFmtId="166" formatCode="[$$-409]###,###,##0.00#############"/>
     <numFmt numFmtId="167" formatCode="###,###,##0.00#############"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2054,13 +2014,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri-Bold"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2241,7 +2194,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2484,8 +2437,8 @@
   </sheetPr>
   <dimension ref="A1:AH652"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC1" activeCellId="0" sqref="AC1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC4" activeCellId="0" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
